--- a/experiments/results/RuDaS results.xlsx
+++ b/experiments/results/RuDaS results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cor/Desktop/GIT/RuDaS/experiments/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF09FFA7-1735-AD4B-81A0-D763B4091F21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDFF3FB-A989-A647-B9D1-D9595B63811D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="7" xr2:uid="{5E330D4F-BF21-134F-BC4C-7A179DE87522}"/>
   </bookViews>
@@ -14543,7 +14543,7 @@
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:U43"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19467,7 +19467,7 @@
   <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19817,10 +19817,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="28">
-        <v>0</v>
+        <v>0.66666666666666596</v>
       </c>
       <c r="E8" s="28">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F8" s="28">
         <v>0.338461437315902</v>
@@ -20040,7 +20040,7 @@
         <v>0.42992196025530899</v>
       </c>
       <c r="E12" s="28">
-        <v>0</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="F12" s="28">
         <v>0.25559691102527898</v>
@@ -21841,11 +21841,11 @@
       <c r="B46" s="6"/>
       <c r="C46" s="19">
         <f>AVERAGE(D3:D42,K3:K42,R3:R42)</f>
-        <v>0.26726514512093263</v>
+        <v>0.27282070067648811</v>
       </c>
       <c r="D46" s="19">
         <f>AVERAGE(E3:E42,L3:L42,S3:S42)</f>
-        <v>0.16778378734983465</v>
+        <v>0.18108910947868626</v>
       </c>
       <c r="E46" s="19">
         <f>AVERAGE(F3:F42,M3:M42,T3:T42)</f>
